--- a/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80F7620-FDB5-4A66-B278-77611E1DD0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{671D14F7-54C9-43F9-A4CF-E7E90C66B92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8078C4B1-30BD-46F5-8B0E-38209EC72755}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{15A51097-ADFA-4B04-8CBD-387787349EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,63 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Porque creo que no es necesaria</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>Porque me parece que no es segura</t>
+  </si>
+  <si>
+    <t>Porque no me han informado sobre esta vacuna</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Porque se me ha olvidado</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -95,69 +152,102 @@
     <t>97,46%</t>
   </si>
   <si>
-    <t>Porque creo que no es necesaria</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Porque me parece que no es segura</t>
-  </si>
-  <si>
-    <t>Porque no me han informado sobre esta vacuna</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>Porque se me ha olvidado</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
     <t>62,43%</t>
   </si>
   <si>
@@ -176,94 +266,76 @@
     <t>91,76%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>78,66%</t>
@@ -291,78 +363,6 @@
   </si>
   <si>
     <t>87,23%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A844A905-003C-4C22-A1EA-7B3F35CF174D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC763878-19CE-4724-9A6E-0941B6B3DFDF}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -872,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7511</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -887,40 +887,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>4210</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11722</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -929,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -959,163 +959,163 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>833</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>833</v>
+        <v>347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7511</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4210</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>347</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11722</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>347</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>37</v>
@@ -1180,70 +1180,70 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2198</v>
+        <v>1095</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
-        <v>1114</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>1095</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3313</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1252,85 +1252,85 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1676</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>442</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1369,64 +1369,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2742</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3315</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>737</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>737</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>3521</v>
+        <v>1668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -1450,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>1851</v>
+        <v>4418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -1465,10 +1465,10 @@
         <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>5372</v>
+        <v>6086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1491,67 +1491,67 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>573</v>
+        <v>881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2742</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>3315</v>
+        <v>881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1095</v>
+        <v>442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1560,34 +1560,34 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1095</v>
+        <v>442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1647,94 +1647,94 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1676</v>
+        <v>737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1676</v>
+        <v>737</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3313</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,25 +1743,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3521</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
-        <v>1668</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="7">
-        <v>6</v>
-      </c>
       <c r="I21" s="7">
-        <v>4418</v>
+        <v>1851</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
@@ -1773,10 +1773,10 @@
         <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N21" s="7">
-        <v>6086</v>
+        <v>5372</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>38</v>
@@ -1796,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>10282</v>
+        <v>1976</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>76</v>
@@ -1811,235 +1811,235 @@
         <v>78</v>
       </c>
       <c r="H22" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>8066</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1976</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M22" s="7">
-        <v>34</v>
-      </c>
-      <c r="N22" s="7">
-        <v>18348</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1976</v>
+        <v>442</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>442</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1976</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2137</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="7">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2509</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>442</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1084</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2137</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1084</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2509</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>10282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8066</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1084</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>34</v>
+      </c>
+      <c r="N26" s="7">
+        <v>18348</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="7">
-        <v>2</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1084</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>108</v>

--- a/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{671D14F7-54C9-43F9-A4CF-E7E90C66B92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{517F86E6-9897-4F2E-94A9-EE6326A38B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{15A51097-ADFA-4B04-8CBD-387787349EAB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0507B5C4-DAE8-4990-9859-9DAA07DA8D62}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="116">
   <si>
     <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
   </si>
@@ -65,304 +65,325 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>Porque se me ha olvidado</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>Porque no me han informado sobre esta vacuna</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>Porque me parece que no es segura</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>Porque creo que no es necesaria</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Porque me parece que no es segura</t>
-  </si>
-  <si>
-    <t>Porque no me han informado sobre esta vacuna</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>Porque se me ha olvidado</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +394,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,39 +490,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -553,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -664,13 +685,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -679,6 +693,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -743,19 +764,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC763878-19CE-4724-9A6E-0941B6B3DFDF}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279BD7F-27A0-4B43-99EA-2DAEA95C1839}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -872,10 +913,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6179</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -887,40 +928,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3436</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -929,49 +970,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -980,49 +1021,49 @@
         <v>372</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>461</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
       <c r="N6" s="7">
-        <v>833</v>
+        <v>372</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1031,94 +1072,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7511</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4210</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11722</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,108 +1168,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>7883</v>
+        <v>6551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>5019</v>
+        <v>3783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>12902</v>
+        <v>10334</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1095</v>
+        <v>1905</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3516</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>1095</v>
+        <v>5421</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1237,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1252,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1267,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1288,49 +1329,49 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1676</v>
+        <v>2137</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1676</v>
+        <v>2137</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1339,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1354,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1369,61 +1410,61 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>573</v>
+        <v>731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2742</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>3315</v>
+        <v>731</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -1435,49 +1476,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>1668</v>
+        <v>2636</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>4418</v>
+        <v>5653</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N15" s="7">
-        <v>6086</v>
+        <v>8289</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,106 +1529,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>881</v>
+        <v>1769</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>394</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>881</v>
+        <v>2162</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1596,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1611,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1626,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1647,94 +1688,94 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2198</v>
+        <v>364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>3313</v>
+        <v>364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,306 +1784,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>3521</v>
+        <v>2133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>1851</v>
+        <v>394</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M21" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>5372</v>
+        <v>2526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1976</v>
+        <v>430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1976</v>
+        <v>1150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
-        <v>442</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>442</v>
+        <v>737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>2137</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>2509</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>1084</v>
+        <v>442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>10282</v>
+        <v>881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>8066</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>18348</v>
+        <v>881</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,55 +2092,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1752</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1457</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10282</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="7">
+        <v>14</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8066</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="7">
+        <v>34</v>
+      </c>
+      <c r="N28" s="7">
+        <v>18348</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1084</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1084</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>372</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2137</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" s="7">
+        <v>4</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2509</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>442</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>442</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1976</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1976</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>25</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>13072</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19</v>
+      </c>
+      <c r="I33" s="7">
         <v>11287</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="7">
         <v>44</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>24359</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>38</v>
+      <c r="O33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{517F86E6-9897-4F2E-94A9-EE6326A38B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8712BD0F-557A-4E6E-A6E8-C69CA1553DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0507B5C4-DAE8-4990-9859-9DAA07DA8D62}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD74A29-6500-44F3-B294-0B63D59BCA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="115">
   <si>
     <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>94,33%</t>
   </si>
   <si>
-    <t>74,22%</t>
+    <t>74,98%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,13 +83,13 @@
     <t>90,82%</t>
   </si>
   <si>
-    <t>51,41%</t>
+    <t>42,76%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>77,84%</t>
+    <t>77,72%</t>
   </si>
   <si>
     <t>Porque se me ha olvidado</t>
@@ -107,13 +107,13 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>48,59%</t>
+    <t>57,24%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>18,47%</t>
   </si>
   <si>
     <t>Porque no me han informado sobre esta vacuna</t>
@@ -122,76 +122,79 @@
     <t>5,67%</t>
   </si>
   <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>Porque me parece que no es segura</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>Porque creo que no es necesaria</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>Porque me parece que no es segura</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>Porque creo que no es necesaria</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>27,75%</t>
@@ -203,7 +206,7 @@
     <t>8,82%</t>
   </si>
   <si>
-    <t>42,53%</t>
+    <t>40,42%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -218,9 +221,6 @@
     <t>85,59%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -233,9 +233,6 @@
     <t>14,41%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
     <t>12-15</t>
   </si>
   <si>
@@ -248,7 +245,7 @@
     <t>35,83%</t>
   </si>
   <si>
-    <t>85,42%</t>
+    <t>83,88%</t>
   </si>
   <si>
     <t>50,56%</t>
@@ -257,7 +254,7 @@
     <t>22,95%</t>
   </si>
   <si>
-    <t>86,96%</t>
+    <t>76,99%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -272,7 +269,7 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>71,01%</t>
+    <t>70,73%</t>
   </si>
   <si>
     <t>50,26%</t>
@@ -281,34 +278,34 @@
     <t>27,44%</t>
   </si>
   <si>
-    <t>87,87%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -317,43 +314,43 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>33,9%</t>
+    <t>36,44%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>17,68%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>15,37%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>21,1%</t>
+    <t>19,46%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -362,7 +359,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>15,12%</t>
@@ -371,16 +368,16 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>38,48%</t>
+    <t>37,14%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -795,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279BD7F-27A0-4B43-99EA-2DAEA95C1839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70282DD8-99F2-4418-A746-5BD8E5C51394}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,13 +1356,13 @@
         <v>2137</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,13 +1428,13 @@
         <v>731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1461,13 +1458,13 @@
         <v>731</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,7 +1520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1535,7 +1532,7 @@
         <v>1769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>19</v>
@@ -1553,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>35</v>
@@ -1565,10 +1562,10 @@
         <v>2162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1775,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,7 +1828,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1843,7 +1840,7 @@
         <v>430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
@@ -1858,7 +1855,7 @@
         <v>720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -1873,13 +1870,13 @@
         <v>1150</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,7 +1906,7 @@
         <v>737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -1924,13 +1921,13 @@
         <v>737</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,22 +1963,22 @@
         <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,7 +1993,7 @@
         <v>442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>19</v>
@@ -2017,7 +2014,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2026,13 +2023,13 @@
         <v>442</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2044,7 @@
         <v>881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
@@ -2068,7 +2065,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2077,13 +2074,13 @@
         <v>881</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2148,13 @@
         <v>10282</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -2166,13 +2163,13 @@
         <v>8066</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -2181,13 +2178,13 @@
         <v>18348</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,7 +2205,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2217,13 +2214,13 @@
         <v>1084</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2232,13 +2229,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2250,13 @@
         <v>372</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2268,13 +2265,13 @@
         <v>2137</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -2283,13 +2280,13 @@
         <v>2509</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,28 +2301,28 @@
         <v>442</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2334,13 +2331,13 @@
         <v>442</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,14 +2352,14 @@
         <v>1976</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
@@ -2376,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2385,13 +2382,13 @@
         <v>1976</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2444,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8712BD0F-557A-4E6E-A6E8-C69CA1553DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AE4F01-D239-4B01-BF43-34EA6249A47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD74A29-6500-44F3-B294-0B63D59BCA5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1C769153-5D5D-430D-BC22-C14DC99E0413}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="115">
-  <si>
-    <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="117">
+  <si>
+    <t>Menores según el motivo por el que no se han vacunado en 2023 (Tasa respuesta: 2,29%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,67 +71,67 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>Porque se me ha olvidado</t>
   </si>
   <si>
+    <t>9,35%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>43,5%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>18,44%</t>
   </si>
   <si>
     <t>Porque no me han informado sobre esta vacuna</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>Porque me parece que no es segura</t>
@@ -149,25 +149,25 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -179,82 +179,88 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>85,59%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -263,121 +269,121 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -792,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70282DD8-99F2-4418-A746-5BD8E5C51394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F4D2B4-BABB-427B-929A-776709793BA5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -910,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>6179</v>
+        <v>3395</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -925,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>3436</v>
+        <v>6305</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -943,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -961,10 +967,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -976,16 +982,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -994,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>25</v>
@@ -1012,28 +1018,28 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>372</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>381</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1045,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -1069,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1084,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1099,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>33</v>
@@ -1120,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1135,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1150,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>33</v>
@@ -1165,25 +1171,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3745</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
-        <v>6551</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
       <c r="I9" s="7">
-        <v>3783</v>
+        <v>6686</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>35</v>
@@ -1198,7 +1204,7 @@
         <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>10334</v>
+        <v>10431</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -1218,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>1905</v>
+        <v>3582</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -1230,28 +1236,28 @@
         <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2138</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3516</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>5421</v>
+        <v>5720</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>42</v>
@@ -1275,29 +1281,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -1305,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>46</v>
@@ -1320,40 +1326,40 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2137</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>2137</v>
+        <v>2112</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>50</v>
@@ -1377,29 +1383,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1407,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>46</v>
@@ -1422,46 +1428,46 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
-        <v>731</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>707</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>56</v>
@@ -1473,25 +1479,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5694</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
-        <v>2636</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>8</v>
-      </c>
       <c r="I15" s="7">
-        <v>5653</v>
+        <v>2845</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>35</v>
@@ -1506,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="N15" s="7">
-        <v>8289</v>
+        <v>8539</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -1526,46 +1532,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>379</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>1769</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>1877</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>394</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2162</v>
+        <v>2255</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1583,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1598,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1613,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>45</v>
@@ -1634,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1649,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1664,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>45</v>
@@ -1685,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1700,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1715,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>45</v>
@@ -1730,49 +1736,49 @@
         <v>34</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>364</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>358</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,25 +1787,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>379</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
-        <v>2133</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
       <c r="I21" s="7">
-        <v>394</v>
+        <v>2235</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>35</v>
@@ -1814,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>2526</v>
+        <v>2613</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>35</v>
@@ -1828,7 +1834,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1837,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>430</v>
+        <v>692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -1852,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>720</v>
+        <v>484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -1867,16 +1873,16 @@
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1150</v>
+        <v>1176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,49 +1891,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1957,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1972,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,49 +1993,49 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>442</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>464</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,49 +2044,49 @@
         <v>34</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>881</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>935</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>881</v>
+        <v>935</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,25 +2095,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1413</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="7">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
-        <v>1752</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7">
-        <v>2</v>
-      </c>
       <c r="I27" s="7">
-        <v>1457</v>
+        <v>1883</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>35</v>
@@ -2122,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="N27" s="7">
-        <v>3209</v>
+        <v>3296</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -2142,49 +2148,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>10282</v>
+        <v>8048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H28" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I28" s="7">
-        <v>8066</v>
+        <v>10803</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
       </c>
       <c r="N28" s="7">
-        <v>18348</v>
+        <v>18851</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,49 +2199,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,49 +2250,49 @@
         <v>26</v>
       </c>
       <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2112</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
-        <v>372</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3</v>
-      </c>
       <c r="I30" s="7">
-        <v>2137</v>
+        <v>381</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>2509</v>
+        <v>2493</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2301,49 @@
         <v>32</v>
       </c>
       <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
-        <v>442</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,49 +2352,49 @@
         <v>34</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="7">
-        <v>1976</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="I32" s="7">
+        <v>2001</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>1976</v>
+        <v>2001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,25 +2403,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7">
+        <v>11231</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="7">
         <v>25</v>
       </c>
-      <c r="D33" s="7">
-        <v>13072</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="7">
-        <v>19</v>
-      </c>
       <c r="I33" s="7">
-        <v>11287</v>
+        <v>13649</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>35</v>
@@ -2430,7 +2436,7 @@
         <v>44</v>
       </c>
       <c r="N33" s="7">
-        <v>24359</v>
+        <v>24880</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>35</v>
@@ -2444,7 +2450,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
